--- a/final_record/MO-231.xlsx
+++ b/final_record/MO-231.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,15 +463,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Теория чисел</t>
+          <t>ООаиП</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Литау</t>
+          <t>Калягина</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Заславский</t>
+          <t>Чамшин</t>
         </is>
       </c>
     </row>
@@ -506,34 +506,14 @@
           <t>Теория чисел</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>11</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Цыбульский</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>MO-231</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ООаиП</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Чамшин</t>
+          <t>Иванов</t>
         </is>
       </c>
     </row>
